--- a/PCB_ELAB/Project Outputs for PCB_Project1/carrito.xlsx
+++ b/PCB_ELAB/Project Outputs for PCB_Project1/carrito.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jorge\UPM\master\ELAB\Trabajo ELAB\PCB_ELAB\Project Outputs for PCB_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{678A14B5-0F20-49A0-B312-3D42BE8B8E71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F9CBA8-AF91-407A-B5FB-A7553B154551}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>Precio (EUR)</t>
   </si>
@@ -64,9 +64,6 @@
     <t>0,50 €</t>
   </si>
   <si>
-    <t>Lelon</t>
-  </si>
-  <si>
     <t>1,36 €</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>621-S1BB-F</t>
   </si>
   <si>
-    <t>Conforme con RoHS por exención</t>
-  </si>
-  <si>
     <t>CC0603KRX5R9BB104</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Potenciómetros 1/10W 10K Ohms 20% 16mm ROTARY POT</t>
   </si>
   <si>
-    <t>Susumu</t>
-  </si>
-  <si>
     <t>1,22 €</t>
   </si>
   <si>
@@ -118,18 +109,12 @@
     <t>0,42 €</t>
   </si>
   <si>
-    <t>KEMET</t>
-  </si>
-  <si>
     <t>0,109 €</t>
   </si>
   <si>
     <t>0,107 €</t>
   </si>
   <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
     <t>URS1V102MHD</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>963-EMK316BJ106KL-T</t>
   </si>
   <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
     <t>1,00 €</t>
   </si>
   <si>
@@ -184,15 +166,9 @@
     <t>0,95 €</t>
   </si>
   <si>
-    <t>Ciclo de vida</t>
-  </si>
-  <si>
     <t>LM317T</t>
   </si>
   <si>
-    <t>Murata</t>
-  </si>
-  <si>
     <t>1,69 €</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>Condensadores electrolíticos de aluminio (con terminales radiales) 35volts 1000uF 16x15 20% 7.5LS</t>
   </si>
   <si>
-    <t>Yageo</t>
-  </si>
-  <si>
     <t>0,042 €</t>
   </si>
   <si>
@@ -238,9 +211,6 @@
     <t>C2012JB1V106K125AC</t>
   </si>
   <si>
-    <t>TDK</t>
-  </si>
-  <si>
     <t>0,659 €</t>
   </si>
   <si>
@@ -289,9 +259,6 @@
     <t>Rectificadores de puente BR SDIP PN 2A 100V</t>
   </si>
   <si>
-    <t>Cumple RoHS</t>
-  </si>
-  <si>
     <t>Condensadores de cerámica multicapa (MLCC- SMD/SMT) 0603 35Vdc 1.0uF X6S 10%</t>
   </si>
   <si>
@@ -307,9 +274,6 @@
     <t>810-C2012JB1C106K08C</t>
   </si>
   <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
     <t>SML-H12P8TT86C</t>
   </si>
   <si>
@@ -325,21 +289,12 @@
     <t>9,30 €</t>
   </si>
   <si>
-    <t>RoHS</t>
-  </si>
-  <si>
-    <t>Nichicon</t>
-  </si>
-  <si>
     <t>2,58 €</t>
   </si>
   <si>
     <t>0,169 €</t>
   </si>
   <si>
-    <t>ROHM Semiconductor</t>
-  </si>
-  <si>
     <t>0,341 €</t>
   </si>
   <si>
@@ -352,9 +307,6 @@
     <t>80-C0805C104K4RAC</t>
   </si>
   <si>
-    <t>C0805C104K4RAC</t>
-  </si>
-  <si>
     <t>1,09 €</t>
   </si>
   <si>
@@ -370,15 +322,6 @@
     <t>Reguladores de voltaje lineal 1.2-37V Adj Positive 1.5 Amp Output</t>
   </si>
   <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>Nuevo producto</t>
-  </si>
-  <si>
-    <t>TT Electronics</t>
-  </si>
-  <si>
     <t>Condensadores de cerámica multicapa (MLCC- SMD/SMT) 47 nF 0805 Case Size</t>
   </si>
   <si>
@@ -388,9 +331,6 @@
     <t>LM386M-1/NOPB</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>CARRO:11/18/2018 9:03:50</t>
   </si>
   <si>
@@ -403,30 +343,15 @@
     <t>0,13 €</t>
   </si>
   <si>
-    <t>Switchcraft</t>
-  </si>
-  <si>
     <t>112BX</t>
   </si>
   <si>
-    <t>Ref. Cliente</t>
-  </si>
-  <si>
     <t>Precio total: (EUR)</t>
   </si>
   <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
     <t>0,05 €</t>
   </si>
   <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
     <t>LED estándar - SMD Grn 560nm 4mcd 2.2V; 20mA; 0603</t>
   </si>
   <si>
@@ -437,13 +362,16 @@
   </si>
   <si>
     <t>4,59 €</t>
+  </si>
+  <si>
+    <t>08053C104KAT2A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +382,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,6 +397,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,8 +512,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,6 +692,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -859,50 +808,53 @@
   </borders>
   <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="20% - Énfasis1" xfId="17" builtinId="30" hidden="1"/>
@@ -1334,18 +1286,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
@@ -1356,619 +1308,470 @@
     <col min="11" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12">
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>96</v>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17">
+        <v>110</v>
+      </c>
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18">
+        <v>36</v>
+      </c>
+      <c r="D18">
         <v>10</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19">
+        <v>24</v>
+      </c>
+      <c r="D19">
         <v>14</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22">
+        <v>71</v>
+      </c>
+      <c r="D22">
         <v>10</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27">
+      <c r="F28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
